--- a/wwwroot/Files/ForInput/Sheet1.xlsx
+++ b/wwwroot/Files/ForInput/Sheet1.xlsx
@@ -9,9 +9,6 @@
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
-  <x:definedNames>
-    <x:definedName name="Sheet1">'Sheet1'!$A$1:$V$2</x:definedName>
-  </x:definedNames>
   <x:calcPr calcId="125725" fullCalcOnLoad="true"/>
 </x:workbook>
 </file>
@@ -26,6 +23,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -33,6 +51,30 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,12 +85,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="left"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,220 +435,1156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:V2"/>
+  <x:dimension ref="A1:V10"/>
   <x:sheetViews>
     <x:sheetView rightToLeft="false" tabSelected="1" workbookViewId="0">
       <x:selection activeCell="C5" sqref="C5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="14.0625" customWidth="true"/>
+    <x:col min="2" max="2" width="14.0625" customWidth="true"/>
+    <x:col min="3" max="3" width="14.0625" customWidth="true"/>
+    <x:col min="4" max="4" width="14.0625" customWidth="true"/>
+    <x:col min="5" max="5" width="14.0625" customWidth="true"/>
+    <x:col min="6" max="6" width="14.0625" customWidth="true"/>
+    <x:col min="7" max="7" width="14.0625" customWidth="true"/>
+    <x:col min="8" max="8" width="14.0625" customWidth="true"/>
+    <x:col min="9" max="9" width="14.0625" customWidth="true"/>
+    <x:col min="10" max="10" width="14.0625" customWidth="true"/>
+    <x:col min="11" max="11" width="14.0625" customWidth="true"/>
+    <x:col min="12" max="12" width="14.0625" customWidth="true"/>
+    <x:col min="13" max="13" width="14.0625" customWidth="true"/>
+    <x:col min="14" max="14" width="14.0625" customWidth="true"/>
+    <x:col min="15" max="15" width="14.0625" customWidth="true"/>
+    <x:col min="16" max="16" width="14.0625" customWidth="true"/>
+    <x:col min="17" max="17" width="14.0625" customWidth="true"/>
+    <x:col min="18" max="18" width="14.0625" customWidth="true"/>
+    <x:col min="19" max="19" width="14.0625" customWidth="true"/>
+    <x:col min="20" max="20" width="14.0625" customWidth="true"/>
+    <x:col min="21" max="21" width="14.0625" customWidth="true"/>
+    <x:col min="22" max="22" width="14.0625" customWidth="true"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" outlineLevel="0">
-      <x:c r="A1" s="0" t="inlineStr">
+      <x:c r="A1" s="2" t="inlineStr">
         <x:is>
           <x:t>Лаборатория</x:t>
         </x:is>
       </x:c>
-      <x:c r="B1" s="0" t="inlineStr">
+      <x:c r="B1" s="2" t="inlineStr">
         <x:is>
           <x:t>Район</x:t>
         </x:is>
       </x:c>
-      <x:c r="C1" s="0" t="inlineStr">
+      <x:c r="C1" s="2" t="inlineStr">
         <x:is>
           <x:t>Дата забора крови</x:t>
         </x:is>
       </x:c>
-      <x:c r="D1" s="0" t="inlineStr">
+      <x:c r="D1" s="2" t="inlineStr">
         <x:is>
           <x:t>Категория</x:t>
         </x:is>
       </x:c>
-      <x:c r="E1" s="0" t="inlineStr">
+      <x:c r="E1" s="2" t="inlineStr">
         <x:is>
           <x:t>Анонимный</x:t>
         </x:is>
       </x:c>
-      <x:c r="F1" s="0" t="inlineStr">
+      <x:c r="F1" s="2" t="inlineStr">
         <x:is>
           <x:t>Фамилия</x:t>
         </x:is>
       </x:c>
-      <x:c r="G1" s="0" t="inlineStr">
+      <x:c r="G1" s="2" t="inlineStr">
         <x:is>
           <x:t>Имя</x:t>
         </x:is>
       </x:c>
-      <x:c r="H1" s="0" t="inlineStr">
+      <x:c r="H1" s="2" t="inlineStr">
         <x:is>
           <x:t>Отчество</x:t>
         </x:is>
       </x:c>
-      <x:c r="I1" s="0" t="inlineStr">
+      <x:c r="I1" s="2" t="inlineStr">
         <x:is>
           <x:t>Дата рождения</x:t>
         </x:is>
       </x:c>
-      <x:c r="J1" s="0" t="inlineStr">
+      <x:c r="J1" s="2" t="inlineStr">
         <x:is>
           <x:t>Пол</x:t>
         </x:is>
       </x:c>
-      <x:c r="K1" s="0" t="inlineStr">
+      <x:c r="K1" s="2" t="inlineStr">
         <x:is>
           <x:t>Телефон</x:t>
         </x:is>
       </x:c>
-      <x:c r="L1" s="0" t="inlineStr">
+      <x:c r="L1" s="2" t="inlineStr">
         <x:is>
           <x:t>Регион</x:t>
         </x:is>
       </x:c>
-      <x:c r="M1" s="0" t="inlineStr">
+      <x:c r="M1" s="2" t="inlineStr">
         <x:is>
           <x:t>Город</x:t>
         </x:is>
       </x:c>
-      <x:c r="N1" s="0" t="inlineStr">
+      <x:c r="N1" s="2" t="inlineStr">
         <x:is>
           <x:t>Населенный пункт</x:t>
         </x:is>
       </x:c>
-      <x:c r="O1" s="0" t="inlineStr">
+      <x:c r="O1" s="2" t="inlineStr">
         <x:is>
           <x:t>Улица</x:t>
         </x:is>
       </x:c>
-      <x:c r="P1" s="0" t="inlineStr">
+      <x:c r="P1" s="2" t="inlineStr">
         <x:is>
           <x:t>Дом</x:t>
         </x:is>
       </x:c>
-      <x:c r="Q1" s="0" t="inlineStr">
+      <x:c r="Q1" s="2" t="inlineStr">
         <x:is>
           <x:t>Корпус</x:t>
         </x:is>
       </x:c>
-      <x:c r="R1" s="0" t="inlineStr">
+      <x:c r="R1" s="2" t="inlineStr">
         <x:is>
           <x:t>Квартира</x:t>
         </x:is>
       </x:c>
-      <x:c r="S1" s="0" t="inlineStr">
+      <x:c r="S1" s="2" t="inlineStr">
         <x:is>
           <x:t>Дата блота</x:t>
         </x:is>
       </x:c>
-      <x:c r="T1" s="0" t="inlineStr">
+      <x:c r="T1" s="2" t="inlineStr">
         <x:is>
           <x:t>Тест система</x:t>
         </x:is>
       </x:c>
-      <x:c r="U1" s="0" t="inlineStr">
+      <x:c r="U1" s="2" t="inlineStr">
         <x:is>
           <x:t>Cut off</x:t>
         </x:is>
       </x:c>
-      <x:c r="V1" s="0" t="inlineStr">
+      <x:c r="V1" s="2" t="inlineStr">
         <x:is>
           <x:t>Результат</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="2" outlineLevel="0">
-      <x:c r="A2" s="0" t="inlineStr">
+      <x:c r="A2" s="4" t="inlineStr">
         <x:is>
           <x:t>МОНИКИ</x:t>
         </x:is>
       </x:c>
-      <x:c r="B2" s="0" t="inlineStr">
-        <x:is>
-          <x:t>test</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C2" s="0" t="inlineStr">
-        <x:is>
-          <x:t>01.01.1900</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D2" s="0">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E2" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="inlineStr">
-        <x:is>
-          <x:t>Иванов</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="G2" s="0" t="inlineStr">
+      <x:c r="B2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G2" s="4" t="inlineStr">
         <x:is>
           <x:t>Иван</x:t>
         </x:is>
       </x:c>
-      <x:c r="H2" s="0" t="inlineStr">
+      <x:c r="H2" s="4" t="inlineStr">
         <x:is>
           <x:t>Иванович</x:t>
         </x:is>
       </x:c>
-      <x:c r="I2" s="0" t="inlineStr">
-        <x:is>
-          <x:t>01.01.1995</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J2" s="0" t="inlineStr">
+      <x:c r="I2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J2" s="4" t="inlineStr">
         <x:is>
           <x:t>М</x:t>
         </x:is>
       </x:c>
-      <x:c r="K2" s="0">
-        <x:v>89999999999</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="inlineStr">
-        <x:is>
-          <x:t>test</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="M2" s="0" t="inlineStr">
+      <x:c r="K2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M2" s="4" t="inlineStr">
         <x:is>
           <x:t>Москва</x:t>
         </x:is>
       </x:c>
-      <x:c r="N2" s="0" t="inlineStr">
+      <x:c r="N2" s="4" t="inlineStr">
         <x:is>
           <x:t>г.Москва</x:t>
         </x:is>
       </x:c>
-      <x:c r="O2" s="0" t="inlineStr">
-        <x:is>
-          <x:t>улюПушкина</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="P2" s="0">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q2" s="0">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R2" s="0">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="inlineStr">
-        <x:is>
-          <x:t>01.01.1900</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="T2" s="0" t="inlineStr">
+      <x:c r="O2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T2" s="4" t="inlineStr">
         <x:is>
           <x:t>test 0000</x:t>
         </x:is>
       </x:c>
-      <x:c r="U2" s="0">
-        <x:v>0.1</x:v>
-      </x:c>
-      <x:c r="V2" s="0">
-        <x:v>0.3</x:v>
+      <x:c r="U2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V2" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="3" outlineLevel="0">
+      <x:c r="A3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V3" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="4" outlineLevel="0">
+      <x:c r="A4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V4" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="5" outlineLevel="0">
+      <x:c r="A5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V5" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="6" outlineLevel="0">
+      <x:c r="A6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V6" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="7" outlineLevel="0">
+      <x:c r="A7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V7" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="8" outlineLevel="0">
+      <x:c r="A8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V8" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="9" outlineLevel="0">
+      <x:c r="A9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V9" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="10" outlineLevel="0">
+      <x:c r="A10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V10" s="4" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/wwwroot/Files/ForInput/Sheet1.xlsx
+++ b/wwwroot/Files/ForInput/Sheet1.xlsx
@@ -611,7 +611,7 @@
       </x:c>
       <x:c r="F3" s="0" t="inlineStr">
         <x:is>
-          <x:t>Фамилия</x:t>
+          <x:t>Иванов</x:t>
         </x:is>
       </x:c>
       <x:c r="G3" s="0" t="inlineStr">
